--- a/dataset/records.xlsx
+++ b/dataset/records.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF449D6E-C7B5-4DAA-B5DA-66B4C5756DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19855E0-5947-464C-867F-1281F1847FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BM4D" sheetId="2" r:id="rId1"/>
-    <sheet name="N2N" sheetId="3" r:id="rId2"/>
+    <sheet name="info" sheetId="8" r:id="rId1"/>
+    <sheet name="BM4D" sheetId="2" r:id="rId2"/>
     <sheet name="N2V" sheetId="4" r:id="rId3"/>
     <sheet name="Nb2Nb" sheetId="5" r:id="rId4"/>
     <sheet name="ZS-N2N" sheetId="6" r:id="rId5"/>
@@ -30,29 +30,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="25">
   <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSMI</t>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SSIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRISQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaussian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalize, z-score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_20p 150_120 OSEM</t>
+  </si>
+  <si>
+    <t>15 vCPU Intel(R) Xeon(R) Platinum 8338C CPU @ 2.60GHz</t>
+  </si>
+  <si>
+    <t>RTX 3090(24GB)</t>
+  </si>
+  <si>
+    <t>80GB</t>
+  </si>
+  <si>
+    <t>Pytorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyTorch  2.0.0</t>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TracPETperf-D2-PhantomExperiments2 | Zenodo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +145,138 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -84,15 +284,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="40% - 着色 1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - 着色 2" xfId="7" builtinId="35"/>
+    <cellStyle name="40% - 着色 4" xfId="8" builtinId="43"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8"/>
+    <cellStyle name="计算" xfId="3" builtinId="22"/>
+    <cellStyle name="解释性文本" xfId="4" builtinId="53"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="着色 2" xfId="6" builtinId="33"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,39 +689,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C996A34-CB54-4173-8686-F251E9B8BEB8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B89BC-091C-4ABC-99A9-7B7FF304C1EB}">
+  <dimension ref="C3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" display="https://zenodo.org/record/6580182" xr:uid="{9DD59375-17EB-4871-8FEE-AAA7CC1B6FB1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A2FA52-CE92-419D-A1DD-FED3B7CF26D6}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C996A34-CB54-4173-8686-F251E9B8BEB8}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G2">
+        <v>4536.88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -412,17 +1019,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C5D8FD-3D1F-496F-920C-1176908991ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -433,14 +1262,242 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBBAC3-FCFA-4EDD-B105-769D90C09A15}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -448,14 +1505,242 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D21BA9-BA27-4F9A-A408-CE5089517C20}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -463,12 +1748,242 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F421B-8FFD-4329-A11F-01D42B1C7B77}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/records.xlsx
+++ b/dataset/records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1C7FA-9684-4848-A777-87F986CA529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D9A1C-1E92-4F39-9A64-86459BCCE2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
